--- a/biology/Médecine/Le_Cas_du_docteur_Laurent/Le_Cas_du_docteur_Laurent.xlsx
+++ b/biology/Médecine/Le_Cas_du_docteur_Laurent/Le_Cas_du_docteur_Laurent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cas du docteur Laurent est un film français réalisé par Jean-Paul Le Chanois et sorti en 1957.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le docteur Laurent est contraint, pour des raisons de santé, de quitter Paris. Il arrive dans un petit bourg de l’arrière-pays des Alpes-Maritimes, à Saint-Martin-Vésubie, où il doit remplacer le docteur Bastid devenu trop âgé pour continuer à exercer. 
 Après avoir fait le tour du village sous la conduite du docteur Bastid, le docteur Laurent commence ses consultations. Très vite, il est sollicité par de nombreux villageois, notamment par Francine, une jeune paysanne célibataire qui lui révèle qu'elle est enceinte.
@@ -546,10 +560,12 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Le Cas du docteur Laurent
-Titre de travail : Sans douleur[2]
+Titre de travail : Sans douleur
 Réalisation : Jean-Paul Le Chanois
 Assistants réalisation : Pierre Granier-Deferre, Jean Vigne, Jacques Gaillard
 Scénario : Jean-Paul Le Chanois, René Barjavel
@@ -564,12 +580,12 @@
 Chanson : En chemin, paroles de Jean-Paul Le Chanois, musique de Marguerite Monnot
 Production : Ignace Morgenstern
 Sociétés de production : Cocinor (Comptoir cinématographique du Nord), Cocinex et SEDIF Productions (Société d'exploitation et de distribution de films)
-Société de distribution : Cocinor[3],[1],[4]
+Société de distribution : Cocinor
 Pays d'origine :  France
 Langue originale : français
 Format : noir et blanc — 1.37:1 — 35 mm — son monophonique (Westrex Recording System)
 Genre : comédie dramatique
-Durée : 110-115  minutes[1]
+Durée : 110-115  minutes
 Dates de sortie :
 France : 3 avril 1957
 États-Unis : 25 juin 1958
@@ -601,7 +617,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Jean Gabin : le docteur Laurent
@@ -686,8 +704,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tournage
-Le tournage a eu lieu du 10 septembre au 24 novembre 1956 à Venanson[5] et Saint-Martin-Vésubie (Alpes-Maritimes) pour les extérieurs, et aux studios Photosonor (Courbevoie, Hauts-de-Seine) et studios de la Victorine (Nice, Alpes-Maritimes)[4]. 
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage a eu lieu du 10 septembre au 24 novembre 1956 à Venanson et Saint-Martin-Vésubie (Alpes-Maritimes) pour les extérieurs, et aux studios Photosonor (Courbevoie, Hauts-de-Seine) et studios de la Victorine (Nice, Alpes-Maritimes). 
 </t>
         </is>
       </c>
@@ -716,11 +739,13 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Tant lors de la sortie en salles en 1957 qu'après celle du DVD de 2019 ou ses rediffusions télévisées récentes, les critiques affichent un certain enthousiasme pour la hardiesse et la modernité du film, non sans piques contre la Nouvelle Vague qui jetait Jean-Paul Le Chanois aux orties, et malgré la part de schématisation manichéiste qu'elles y relèvent. L'image de « l'immense » Henri Alekan, la performance sobre des acteurs, notamment Jean Gabin et Nicole Courcel, sont soulignées.
-Le Monde salue « un sujet hardi, osé même : l'accouchement sans douleur, mais traité avec une telle sobriété, une telle simplicité, qu'il en est émouvant. Les images parlent d'elles-mêmes et empoignent par leur puissance d'expression et leur sincérité. La scène de l'accouchement, traitée avec infiniment de tact mais dont aucune vérité n'est épargnée, est d'une beauté qui touche à la grandeur »[6].
-À voir à lire juge que « ce qui sidère le plus dans la vision de la France paysanne des années 50, c’est l’extraordinaire féminisme du film : Nicole Courcel incarne une fille-mère qui non seulement se fait accepter de tous, mais va jusqu’à rejeter le père qu’elle trouve faible »[7]
+Le Monde salue « un sujet hardi, osé même : l'accouchement sans douleur, mais traité avec une telle sobriété, une telle simplicité, qu'il en est émouvant. Les images parlent d'elles-mêmes et empoignent par leur puissance d'expression et leur sincérité. La scène de l'accouchement, traitée avec infiniment de tact mais dont aucune vérité n'est épargnée, est d'une beauté qui touche à la grandeur ».
+À voir à lire juge que « ce qui sidère le plus dans la vision de la France paysanne des années 50, c’est l’extraordinaire féminisme du film : Nicole Courcel incarne une fille-mère qui non seulement se fait accepter de tous, mais va jusqu’à rejeter le père qu’elle trouve faible »
 </t>
         </is>
       </c>
@@ -749,7 +774,9 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film montre, dans sa scène finale, un véritable accouchement en gros plan et ce non pas de manière suggérée, ce qui est extrêmement osé, encore plus en 1957. Il affiche ensuite la dédicace finale suivante : « Ce film est dédié respectueusement aux pionniers de la méthode psychoprophylactique d’accouchement sans douleur. Il a été réalisé avec l’aide de la maternité des métallurgistes à Paris où cette méthode a été pratiquée la première fois en France en 1952. »
 </t>
@@ -780,7 +807,9 @@
           <t>Vidéographie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>2005 : Le Cas du docteur Laurent + bonus, 1 DVD Zone 2, LCJ éditions et productions.
 2019 : Le Cas du docteur Laurent + bonus (comprenant actualités, bandes annonces et réclames d'époque), 1 DVD Zone 2 + 1 Blu-Ray, éditions Coin de mire.</t>
